--- a/biology/Botanique/Peucedanum_multivittatum/Peucedanum_multivittatum.xlsx
+++ b/biology/Botanique/Peucedanum_multivittatum/Peucedanum_multivittatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peucedanum multivittatum est une espèce de plantes à fleurs herbacées de la famille des Apiaceae, endémique du Japon.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacées à fleurs blanches en ombelles.
 			Ombelle.
@@ -547,9 +561,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce endémique du Japon[1],[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce endémique du Japon.
 </t>
         </is>
       </c>
@@ -578,16 +594,18 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Peucedanum multivittatum Maxim., 1886[1],[2],[3]. Il a été validement publié en 1886 dans le Bulletin de l'Académie Impériale des Sciences de St. Pétersbourg par le botaniste russe Carl Maximowicz[4].
-Peucedanum multivittatum Maxim. a pour synonymes[1],[2],[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Peucedanum multivittatum Maxim., 1886. Il a été validement publié en 1886 dans le Bulletin de l'Académie Impériale des Sciences de St. Pétersbourg par le botaniste russe Carl Maximowicz.
+Peucedanum multivittatum Maxim. a pour synonymes :
 Peucedanum linearilobum (Tatew.) Nakai, 1930
 Peucedanum multivittatum f. dissectum Makino, 1926
 Peucedanum multivittatum f. linearilobum (Tatew.) Ohwi, 1953
 Peucedanum multivittatum var. dissectum (Makino) Takeda, 1931
 Peucedanum multivittatum var. linearilobum Tatew., 1928
-Il existe un homonyme junior, Peucedanum multivittatum Cufod., 1939 (nom. illeg.), synonyme de Afrosciadium harmsianum subsp. harmsianum[5].
+Il existe un homonyme junior, Peucedanum multivittatum Cufod., 1939 (nom. illeg.), synonyme de Afrosciadium harmsianum subsp. harmsianum.
 </t>
         </is>
       </c>
